--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyyamazaki.SBSP\Documents\GitHub\Dio.IA.Excel.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pai\Documents\GitHub\Dio.IA.Excel.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FE4ADB-F40F-4F6D-94ED-47E9F767718A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0DDFD7-174D-4F7C-B4E1-DB4D45D9132F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets " sheetId="4" r:id="rId1"/>
@@ -20,11 +20,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bases!$A$1:$M$100</definedName>
+    <definedName name="pbl_play">Cálculos!$C$18</definedName>
     <definedName name="SegmentaçãodeDados_Subscription_Type">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="312">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -970,17 +971,27 @@
   </si>
   <si>
     <t>Elisa Magalhães</t>
+  </si>
+  <si>
+    <t>XBOX GAMEPASS SUBSCRIPTIONS SALE</t>
+  </si>
+  <si>
+    <t>Contagem de EA Play Season Pass</t>
+  </si>
+  <si>
+    <t>Soma de Minecraft Season Pass Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,8 +1020,16 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1047,8 +1066,20 @@
         <bgColor rgb="FF196B24"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1065,11 +1096,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1088,22 +1128,232 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="69">
     <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1142,13 +1392,43 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[dashboard.xlsx]Cálculos!Tabela dinâmica1</c:name>
-    <c:fmtId val="0"/>
+    <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1224,7 +1504,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0AAF-4D89-89B7-78AF090F8CD3}"/>
+              <c16:uniqueId val="{00000000-F173-4BDA-99DD-B3490AAD63B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1326,7 +1606,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -1354,7 +1636,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -2419,34 +2700,156 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11" descr="Free Xbox Logo Icon - Download Gratuito Logotipos Logo Icons | IconScout">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521FFF80-F712-45F0-BF8A-D6C098B077FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2524125" y="1381125"/>
+          <a:ext cx="2438400" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr="Free Xbox Logo Icon - Download Gratuito Logotipos Logo Icons | IconScout">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFB49EB-D1EE-4CE9-96E7-AC7850982AD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="32813" b="33594"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="85725"/>
+          <a:ext cx="1219200" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E41FCB9-13E1-445E-A342-FEBCF2579C19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0187C6C0-9421-4F92-AD77-12D8F38DBF9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2454,33 +2857,33 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1323974</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Subscription Type">
+            <xdr:cNvPr id="5" name="Subscription Type">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1FB87C-27A7-49B5-A90E-13EAE5CF4A4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E47B8BC-0258-4668-8560-D1860B6B0D4A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2507,8 +2910,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3295650" y="581025"/>
-              <a:ext cx="1828800" cy="1438275"/>
+              <a:off x="0" y="1090613"/>
+              <a:ext cx="1323974" cy="1438275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2538,11 +2941,527 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Agrupar 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74957943-6669-4B9D-B508-48AF08AAB8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1781175" y="776287"/>
+          <a:ext cx="4238625" cy="1962150"/>
+          <a:chOff x="1714500" y="790575"/>
+          <a:chExt cx="4238625" cy="1962150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1410D8-C6E1-411A-A297-A591310B2A66}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1714500" y="790575"/>
+            <a:ext cx="4238625" cy="1962150"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="Agrupar 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B910793-6CDC-4253-BB62-DD0F69F076EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1857375" y="1657351"/>
+            <a:ext cx="4038599" cy="704850"/>
+            <a:chOff x="1857375" y="1657351"/>
+            <a:chExt cx="4038599" cy="704850"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="Cálculos!F20">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DB47BA-9C40-4934-8D39-756FD8531C32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2686049" y="1657351"/>
+              <a:ext cx="3209925" cy="704850"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{58F2E7C0-5CE2-4C0B-9090-09861CBE8EBA}" type="TxLink">
+                <a:rPr lang="en-US" sz="4400" b="1" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>R$ 71,00</a:t>
+              </a:fld>
+              <a:endParaRPr lang="pt-BR" sz="4400" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Imagem 7" descr="Electronic Arts Vector Logo - Download Free SVG Icon ...">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7E85CB-F484-4A7E-A4D6-751C805720C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1857375" y="1662113"/>
+              <a:ext cx="666750" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Retângulo: Cantos Superiores Arredondados 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E87A04-2A63-40FA-A160-00CA2D753219}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1724025" y="800101"/>
+            <a:ext cx="4219575" cy="533400"/>
+          </a:xfrm>
+          <a:prstGeom prst="round2SameRect">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+              <a:gd name="adj2" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800"/>
+              <a:t>TOTAL SUBSCRIPTIONS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+              <a:t> EA SEASON PASS</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Agrupar 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F47CB9B-00FA-43DB-8524-DEDA92BF91F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6696075" y="776287"/>
+          <a:ext cx="4238625" cy="1962150"/>
+          <a:chOff x="1714500" y="790575"/>
+          <a:chExt cx="4238625" cy="1962150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Retângulo: Cantos Arredondados 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714F809F-11CE-45D5-A9AB-33ED74CBFE20}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1714500" y="790575"/>
+            <a:ext cx="4238625" cy="1962150"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="Cálculos!F32">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Retângulo: Cantos Arredondados 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D32349-312E-4AF0-ABEE-B09BAF5622A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2686049" y="1657351"/>
+            <a:ext cx="3209925" cy="704850"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{6092FF7C-9440-481F-AD6E-DE95DB2FF8FA}" type="TxLink">
+              <a:rPr lang="en-US" sz="4400" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:t>R$ 940,00</a:t>
+            </a:fld>
+            <a:endParaRPr lang="pt-BR" sz="4400" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Retângulo: Cantos Superiores Arredondados 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE6BAF7-BEF9-4D99-9298-B58AD4D57A5C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1724025" y="800101"/>
+            <a:ext cx="4219575" cy="533400"/>
+          </a:xfrm>
+          <a:prstGeom prst="round2SameRect">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+              <a:gd name="adj2" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800"/>
+              <a:t>TOTAL SUBSCRIPTIONS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+              <a:t> MINECRAFT</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagem 17" descr="Minecraft/Icons | Logopedia | Fandom">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BAB878-F489-4093-9EEA-32537D44C276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6829425" y="1647825"/>
+          <a:ext cx="657225" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="cyyamazaki" refreshedDate="45919.656729629627" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="296" xr:uid="{FD63FC81-B325-4AD5-A765-888EA750A8F1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pai" refreshedDate="45919.741066087961" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="296" xr:uid="{FD63FC81-B325-4AD5-A765-888EA750A8F1}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:M297" sheet="Bases"/>
   </cacheSource>
@@ -2554,7 +3473,12 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Plan" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="4">
+        <m/>
+        <s v="Ultimate"/>
+        <s v="Core"/>
+        <s v="Standard"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Start Date" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-01-01T00:00:00" maxDate="2024-12-17T00:00:00"/>
@@ -2578,7 +3502,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="EA Play Season Pass" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="3">
+        <m/>
+        <s v="Yes"/>
+        <s v="No"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="EA Play Season Pass2" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="30"/>
@@ -2609,12 +3537,12 @@
   <r>
     <m/>
     <m/>
-    <m/>
+    <x v="0"/>
     <m/>
     <x v="0"/>
     <m/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <s v="Price"/>
     <m/>
     <m/>
@@ -2624,12 +3552,12 @@
   <r>
     <n v="3231"/>
     <s v="João Silva"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-01-01T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2639,12 +3567,12 @@
   <r>
     <n v="3232"/>
     <s v="Maria Oliveira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-01-15T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -2654,12 +3582,12 @@
   <r>
     <n v="3233"/>
     <s v="Lucas Fernandes"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-02-10T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2669,12 +3597,12 @@
   <r>
     <n v="3234"/>
     <s v="Ana Souza"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-02-20T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2684,12 +3612,12 @@
   <r>
     <n v="3235"/>
     <s v="Pedro Gonçalves"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-03-05T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -2699,12 +3627,12 @@
   <r>
     <n v="3236"/>
     <s v="Felipe Costa"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-03-02T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2714,12 +3642,12 @@
   <r>
     <n v="3237"/>
     <s v="Camila Ribeiro"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-03-03T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2729,12 +3657,12 @@
   <r>
     <n v="3238"/>
     <s v="André Mendes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-03-04T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -2744,12 +3672,12 @@
   <r>
     <n v="3239"/>
     <s v="Sofia Almeida"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-03-05T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2759,12 +3687,12 @@
   <r>
     <n v="3240"/>
     <s v="Bruno Martins"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-03-06T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2774,12 +3702,12 @@
   <r>
     <n v="3241"/>
     <s v="Rita Castro"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-03-07T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -2789,12 +3717,12 @@
   <r>
     <n v="3242"/>
     <s v="Marco Túlio"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-03-08T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2804,12 +3732,12 @@
   <r>
     <n v="3243"/>
     <s v="Lívia Silveira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-03-09T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2819,12 +3747,12 @@
   <r>
     <n v="3244"/>
     <s v="Diogo Sousa"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-03-10T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -2834,12 +3762,12 @@
   <r>
     <n v="3245"/>
     <s v="Fernanda Lima"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-03-11T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2849,12 +3777,12 @@
   <r>
     <n v="3246"/>
     <s v="Caio Pereira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-03-12T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2864,12 +3792,12 @@
   <r>
     <n v="3247"/>
     <s v="Beatriz Gomes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-03-13T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -2879,12 +3807,12 @@
   <r>
     <n v="3248"/>
     <s v="Cesar Oliveira"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-03-14T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2894,12 +3822,12 @@
   <r>
     <n v="3249"/>
     <s v="Débora Machado"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-03-15T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2909,12 +3837,12 @@
   <r>
     <n v="3250"/>
     <s v="Eduardo Vargas"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-03-16T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -2924,12 +3852,12 @@
   <r>
     <n v="3251"/>
     <s v="Gabriela Santos"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-03-17T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2939,12 +3867,12 @@
   <r>
     <n v="3252"/>
     <s v="Henrique Dias"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-03-18T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2954,12 +3882,12 @@
   <r>
     <n v="3253"/>
     <s v="Isabela Moreira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-03-19T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -2969,12 +3897,12 @@
   <r>
     <n v="3254"/>
     <s v="Joaquim Barbosa"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-03-20T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2984,12 +3912,12 @@
   <r>
     <n v="3255"/>
     <s v="Lara Rocha"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-03-21T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -2999,12 +3927,12 @@
   <r>
     <n v="3256"/>
     <s v="Matheus Silva"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-03-22T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3014,12 +3942,12 @@
   <r>
     <n v="3257"/>
     <s v="Nicole Costa"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-03-23T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3029,12 +3957,12 @@
   <r>
     <n v="3258"/>
     <s v="Otávio Mendonça"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-03-24T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3044,12 +3972,12 @@
   <r>
     <n v="3259"/>
     <s v="Paula Ferreira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-03-25T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3059,12 +3987,12 @@
   <r>
     <n v="3260"/>
     <s v="Raquel Alves"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-03-26T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3074,12 +4002,12 @@
   <r>
     <n v="3261"/>
     <s v="Samuel Pires"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-03-27T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3089,12 +4017,12 @@
   <r>
     <n v="3262"/>
     <s v="Tânia Barros"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-03-28T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3104,12 +4032,12 @@
   <r>
     <n v="3263"/>
     <s v="Vinicius Lima"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-03-29T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3119,12 +4047,12 @@
   <r>
     <n v="3264"/>
     <s v="Yasmin Teixeira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-03-30T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3134,12 +4062,12 @@
   <r>
     <n v="3265"/>
     <s v="Zé Carlos"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-03-31T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3149,12 +4077,12 @@
   <r>
     <n v="3266"/>
     <s v="Amanda Nogueira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-04-01T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3164,12 +4092,12 @@
   <r>
     <n v="3267"/>
     <s v="Bruno Cavalheiro"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-04-02T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3179,12 +4107,12 @@
   <r>
     <n v="3268"/>
     <s v="Carla Dias"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-04-03T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3194,12 +4122,12 @@
   <r>
     <n v="3269"/>
     <s v="Diego Fontes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-04-04T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3209,12 +4137,12 @@
   <r>
     <n v="3270"/>
     <s v="Eunice Lima"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-04-05T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3224,12 +4152,12 @@
   <r>
     <n v="3271"/>
     <s v="Fábio Martins"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-04-06T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3239,12 +4167,12 @@
   <r>
     <n v="3272"/>
     <s v="Gisele Araújo"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-04-07T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3254,12 +4182,12 @@
   <r>
     <n v="3273"/>
     <s v="Hélio Castro"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-04-08T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3269,12 +4197,12 @@
   <r>
     <n v="3274"/>
     <s v="Ingrid Menezes"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-04-09T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3284,12 +4212,12 @@
   <r>
     <n v="3275"/>
     <s v="Jorge Baptista"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-04-10T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3299,12 +4227,12 @@
   <r>
     <n v="3276"/>
     <s v="Kléber Oliveira"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-04-11T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3314,12 +4242,12 @@
   <r>
     <n v="3277"/>
     <s v="Luciana Freitas"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-04-12T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3329,12 +4257,12 @@
   <r>
     <n v="3278"/>
     <s v="Márcia Eller"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-04-13T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3344,12 +4272,12 @@
   <r>
     <n v="3279"/>
     <s v="Nilo Peçanha"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-04-14T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3359,12 +4287,12 @@
   <r>
     <n v="3280"/>
     <s v="Oscar Neves"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-04-15T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3374,12 +4302,12 @@
   <r>
     <n v="3281"/>
     <s v="Patrícia Soares"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-04-16T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3389,12 +4317,12 @@
   <r>
     <n v="3282"/>
     <s v="Quirino Gonçalves"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-04-17T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3404,12 +4332,12 @@
   <r>
     <n v="3283"/>
     <s v="Raul Machado"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-04-18T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3419,12 +4347,12 @@
   <r>
     <n v="3284"/>
     <s v="Sônia Lobo"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-04-19T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3434,12 +4362,12 @@
   <r>
     <n v="3285"/>
     <s v="Tiago Ramos"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-04-20T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3449,12 +4377,12 @@
   <r>
     <n v="3286"/>
     <s v="Ugo Pires"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-04-21T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3464,12 +4392,12 @@
   <r>
     <n v="3287"/>
     <s v="Valéria Nobre"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-04-22T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3479,12 +4407,12 @@
   <r>
     <n v="3288"/>
     <s v="William Siqueira"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-04-23T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3494,12 +4422,12 @@
   <r>
     <n v="3289"/>
     <s v="Xuxa Meneghel"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-04-24T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3509,12 +4437,12 @@
   <r>
     <n v="3290"/>
     <s v="Yara Figueiredo"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-04-25T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3524,12 +4452,12 @@
   <r>
     <n v="3291"/>
     <s v="Zacarias Alves"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-04-26T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3539,12 +4467,12 @@
   <r>
     <n v="3292"/>
     <s v="Amanda Bynes"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-04-27T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3554,12 +4482,12 @@
   <r>
     <n v="3293"/>
     <s v="Bruno Mars"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-04-28T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3569,12 +4497,12 @@
   <r>
     <n v="3294"/>
     <s v="Carla Bruni"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-04-29T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3584,12 +4512,12 @@
   <r>
     <n v="3295"/>
     <s v="Diego Maradona"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-04-30T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3599,12 +4527,12 @@
   <r>
     <n v="3296"/>
     <s v="Estela Marques"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-05-01T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3614,12 +4542,12 @@
   <r>
     <n v="3297"/>
     <s v="Fábio Nobre"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-05-02T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3629,12 +4557,12 @@
   <r>
     <n v="3298"/>
     <s v="Gabriel Oliveira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-05-03T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3644,12 +4572,12 @@
   <r>
     <n v="3299"/>
     <s v="Helena Santos"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-05-04T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3659,12 +4587,12 @@
   <r>
     <n v="3300"/>
     <s v="Ivan Carvalho"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-05-05T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3674,12 +4602,12 @@
   <r>
     <n v="3301"/>
     <s v="Júlia Ferreira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-05-06T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3689,12 +4617,12 @@
   <r>
     <n v="3302"/>
     <s v="Karla Alves"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-05-07T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3704,12 +4632,12 @@
   <r>
     <n v="3303"/>
     <s v="Lucas Mendes"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-05-08T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3719,12 +4647,12 @@
   <r>
     <n v="3304"/>
     <s v="Mônica Gomes"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-05-09T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3734,12 +4662,12 @@
   <r>
     <n v="3305"/>
     <s v="Norberto Queiroz"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-05-10T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3749,12 +4677,12 @@
   <r>
     <n v="3306"/>
     <s v="Otávio Barros"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-05-11T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3764,12 +4692,12 @@
   <r>
     <n v="3307"/>
     <s v="Paula Vieira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-05-12T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3779,12 +4707,12 @@
   <r>
     <n v="3308"/>
     <s v="Quentin Ramos"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-05-13T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3794,12 +4722,12 @@
   <r>
     <n v="3309"/>
     <s v="Raquel Novaes"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-05-14T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3809,12 +4737,12 @@
   <r>
     <n v="3310"/>
     <s v="Samantha Lopes"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-05-15T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3824,12 +4752,12 @@
   <r>
     <n v="3311"/>
     <s v="Tiago Martins"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-05-16T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3839,12 +4767,12 @@
   <r>
     <n v="3312"/>
     <s v="Ulysses Guimarães"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-05-17T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3854,12 +4782,12 @@
   <r>
     <n v="3313"/>
     <s v="Vanessa Silva"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-05-18T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3869,12 +4797,12 @@
   <r>
     <n v="3314"/>
     <s v="William Carneiro"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-05-19T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3884,12 +4812,12 @@
   <r>
     <n v="3315"/>
     <s v="Ximena Rocha"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-05-20T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3899,12 +4827,12 @@
   <r>
     <n v="3316"/>
     <s v="Yasmin Figueiredo"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-05-21T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3914,12 +4842,12 @@
   <r>
     <n v="3317"/>
     <s v="Zara Cunha"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-05-22T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3929,12 +4857,12 @@
   <r>
     <n v="3318"/>
     <s v="Alan Teixeira"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-05-23T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3944,12 +4872,12 @@
   <r>
     <n v="3319"/>
     <s v="Bárbara Oliveira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-05-24T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3959,12 +4887,12 @@
   <r>
     <n v="3320"/>
     <s v="Carlos Junqueira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-05-25T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -3974,12 +4902,12 @@
   <r>
     <n v="3321"/>
     <s v="Daniela Moura"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-05-26T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -3989,12 +4917,12 @@
   <r>
     <n v="3322"/>
     <s v="Eduardo Lima"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-05-27T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4004,12 +4932,12 @@
   <r>
     <n v="3323"/>
     <s v="Fabiana Araújo"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-05-28T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4019,12 +4947,12 @@
   <r>
     <n v="3324"/>
     <s v="Geraldo Ribeiro"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-05-29T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4034,12 +4962,12 @@
   <r>
     <n v="3325"/>
     <s v="Héctor Vargas"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-05-30T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4049,12 +4977,12 @@
   <r>
     <n v="3326"/>
     <s v="Isabela Fonseca"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-05-31T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4064,12 +4992,12 @@
   <r>
     <n v="3327"/>
     <s v="João Pedro Almeida"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-06-01T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4079,12 +5007,12 @@
   <r>
     <n v="3328"/>
     <s v="Klara Costa"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-06-02T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4094,12 +5022,12 @@
   <r>
     <n v="3329"/>
     <s v="Luciana Mendes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-06-03T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4109,12 +5037,12 @@
   <r>
     <n v="3330"/>
     <s v="Marcelo Gouveia"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-06-04T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4124,12 +5052,12 @@
   <r>
     <n v="3331"/>
     <s v="Nívea Borges"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-06-05T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4139,12 +5067,12 @@
   <r>
     <n v="3332"/>
     <s v="Oscar Nogueira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-06-06T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4154,12 +5082,12 @@
   <r>
     <n v="3333"/>
     <s v="Patrícia Alves"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-06-07T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4169,12 +5097,12 @@
   <r>
     <n v="3334"/>
     <s v="Rafaela Silva"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-06-08T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4184,12 +5112,12 @@
   <r>
     <n v="3335"/>
     <s v="Samantha Moraes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-06-09T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4199,12 +5127,12 @@
   <r>
     <n v="3336"/>
     <s v="Tatiana Rocha"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-06-10T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4214,12 +5142,12 @@
   <r>
     <n v="3337"/>
     <s v="Ulisses Tavares"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-06-11T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4229,12 +5157,12 @@
   <r>
     <n v="3338"/>
     <s v="Víctor Lemos"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-06-12T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4244,12 +5172,12 @@
   <r>
     <n v="3339"/>
     <s v="Wilma Barros"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-06-13T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4259,12 +5187,12 @@
   <r>
     <n v="3340"/>
     <s v="Xavier Nascimento"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-06-14T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4274,12 +5202,12 @@
   <r>
     <n v="3341"/>
     <s v="Yago Pereira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-06-15T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4289,12 +5217,12 @@
   <r>
     <n v="3342"/>
     <s v="Zilda Ferreira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-06-16T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4304,12 +5232,12 @@
   <r>
     <n v="3343"/>
     <s v="Amanda Lopes"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-06-17T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4319,12 +5247,12 @@
   <r>
     <n v="3344"/>
     <s v="Bruno Miranda"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-06-18T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4334,12 +5262,12 @@
   <r>
     <n v="3345"/>
     <s v="Célia Torres"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-06-19T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4349,12 +5277,12 @@
   <r>
     <n v="3346"/>
     <s v="Diogo Souza"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-06-20T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4364,12 +5292,12 @@
   <r>
     <n v="3347"/>
     <s v="Elisa Castro"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-06-21T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4379,12 +5307,12 @@
   <r>
     <n v="3348"/>
     <s v="Fátima Lima"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-06-22T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4394,12 +5322,12 @@
   <r>
     <n v="3349"/>
     <s v="Geraldo Ribeiro"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-06-23T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4409,12 +5337,12 @@
   <r>
     <n v="3350"/>
     <s v="Hélio Martins"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-06-24T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4424,12 +5352,12 @@
   <r>
     <n v="3351"/>
     <s v="Íris Santos"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-06-25T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4439,12 +5367,12 @@
   <r>
     <n v="3352"/>
     <s v="João Marcelo"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-06-26T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4454,12 +5382,12 @@
   <r>
     <n v="3353"/>
     <s v="Larissa Gomes"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-06-27T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4469,12 +5397,12 @@
   <r>
     <n v="3354"/>
     <s v="Márcio Silva"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-06-28T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4484,12 +5412,12 @@
   <r>
     <n v="3355"/>
     <s v="Nadia Costa"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-06-29T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4499,12 +5427,12 @@
   <r>
     <n v="3356"/>
     <s v="Oscar Almeida"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-06-30T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4514,12 +5442,12 @@
   <r>
     <n v="3357"/>
     <s v="Patricia Soares"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-07-01T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4529,12 +5457,12 @@
   <r>
     <n v="3358"/>
     <s v="Quênia Barros"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-07-02T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4544,12 +5472,12 @@
   <r>
     <n v="3359"/>
     <s v="Rafael Torres"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-07-03T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4559,12 +5487,12 @@
   <r>
     <n v="3360"/>
     <s v="Silvia Nascimento"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-07-04T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4574,12 +5502,12 @@
   <r>
     <n v="3361"/>
     <s v="Tiago Mendes"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-07-05T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4589,12 +5517,12 @@
   <r>
     <n v="3362"/>
     <s v="Ursula Silva"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-07-06T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4604,12 +5532,12 @@
   <r>
     <n v="3363"/>
     <s v="Vanessa Moraes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-07-07T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4619,12 +5547,12 @@
   <r>
     <n v="3364"/>
     <s v="Waldir Junior"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-07-08T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4634,12 +5562,12 @@
   <r>
     <n v="3365"/>
     <s v="Xavier Lopes"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-07-09T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4649,12 +5577,12 @@
   <r>
     <n v="3366"/>
     <s v="Yolanda Freitas"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-07-10T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4664,12 +5592,12 @@
   <r>
     <n v="3367"/>
     <s v="Zacarias Nunes"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-07-11T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4679,12 +5607,12 @@
   <r>
     <n v="3368"/>
     <s v="Ana Clara Barreto"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-07-12T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4694,12 +5622,12 @@
   <r>
     <n v="3369"/>
     <s v="Bruno Henrique"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-07-13T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4709,12 +5637,12 @@
   <r>
     <n v="3370"/>
     <s v="Carlos Eduardo"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-07-14T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4724,12 +5652,12 @@
   <r>
     <n v="3371"/>
     <s v="Débora Lima"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-07-15T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4739,12 +5667,12 @@
   <r>
     <n v="3372"/>
     <s v="Elisa Neves"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-07-16T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4754,12 +5682,12 @@
   <r>
     <n v="3373"/>
     <s v="Fabiano Gomes"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-07-17T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4769,12 +5697,12 @@
   <r>
     <n v="3374"/>
     <s v="Gisele Oliveira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-07-18T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4784,12 +5712,12 @@
   <r>
     <n v="3375"/>
     <s v="Héctor Silva"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-07-19T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4799,12 +5727,12 @@
   <r>
     <n v="3376"/>
     <s v="Igor Martins"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-07-20T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4814,12 +5742,12 @@
   <r>
     <n v="3377"/>
     <s v="Joana Figueiredo"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-07-21T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4829,12 +5757,12 @@
   <r>
     <n v="3378"/>
     <s v="Kleber Machado"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-07-22T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4844,12 +5772,12 @@
   <r>
     <n v="3379"/>
     <s v="Luciana Santos"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-07-23T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4859,12 +5787,12 @@
   <r>
     <n v="3380"/>
     <s v="Marcos Teixeira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-07-24T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4874,12 +5802,12 @@
   <r>
     <n v="3381"/>
     <s v="Natalia Costa"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-07-25T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4889,12 +5817,12 @@
   <r>
     <n v="3382"/>
     <s v="Oscar Ribeiro"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-07-26T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4904,12 +5832,12 @@
   <r>
     <n v="3383"/>
     <s v="Patricia Almeida"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-07-27T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4919,12 +5847,12 @@
   <r>
     <n v="3384"/>
     <s v="Quirino Junior"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-07-28T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4934,12 +5862,12 @@
   <r>
     <n v="3385"/>
     <s v="Renata Machado"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-07-29T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4949,12 +5877,12 @@
   <r>
     <n v="3386"/>
     <s v="Sônia Alves"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-07-30T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4964,12 +5892,12 @@
   <r>
     <n v="3387"/>
     <s v="Tiago Nunes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-07-31T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -4979,12 +5907,12 @@
   <r>
     <n v="3388"/>
     <s v="Ulysses Pereira"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-08-01T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -4994,12 +5922,12 @@
   <r>
     <n v="3389"/>
     <s v="Vanessa Lima"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-08-02T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5009,12 +5937,12 @@
   <r>
     <n v="3390"/>
     <s v="Wagner Santos"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-08-03T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5024,12 +5952,12 @@
   <r>
     <n v="3391"/>
     <s v="Xuxa Meneghel"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-08-04T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5039,12 +5967,12 @@
   <r>
     <n v="3392"/>
     <s v="Yasmin Silva"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-08-05T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5054,12 +5982,12 @@
   <r>
     <n v="3393"/>
     <s v="Zacarias de Souza"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-08-06T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5069,12 +5997,12 @@
   <r>
     <n v="3394"/>
     <s v="André Lima"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-08-07T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5084,12 +6012,12 @@
   <r>
     <n v="3395"/>
     <s v="Bianca Freitas"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-08-08T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5099,12 +6027,12 @@
   <r>
     <n v="3396"/>
     <s v="Caio Mendes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-08-09T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5114,12 +6042,12 @@
   <r>
     <n v="3397"/>
     <s v="Daniela Moura"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-08-10T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5129,12 +6057,12 @@
   <r>
     <n v="3398"/>
     <s v="Eduardo Costa"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-08-11T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5144,12 +6072,12 @@
   <r>
     <n v="3399"/>
     <s v="Fernanda Gomes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-08-12T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5159,12 +6087,12 @@
   <r>
     <n v="3400"/>
     <s v="Guilherme Souza"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-08-13T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5174,12 +6102,12 @@
   <r>
     <n v="3401"/>
     <s v="Helena Ribeiro"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-08-14T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5189,12 +6117,12 @@
   <r>
     <n v="3402"/>
     <s v="Igor Santos"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-08-15T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5204,12 +6132,12 @@
   <r>
     <n v="3403"/>
     <s v="João Carvalho"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-08-16T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5219,12 +6147,12 @@
   <r>
     <n v="3404"/>
     <s v="Klara Fagundes"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-08-17T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5234,12 +6162,12 @@
   <r>
     <n v="3405"/>
     <s v="Lúcia Mendonça"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-08-18T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5249,12 +6177,12 @@
   <r>
     <n v="3406"/>
     <s v="Marcelo Novaes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-08-19T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5264,12 +6192,12 @@
   <r>
     <n v="3407"/>
     <s v="Nina Pacheco"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-08-20T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5279,12 +6207,12 @@
   <r>
     <n v="3408"/>
     <s v="Olívia Rios"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-08-21T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5294,12 +6222,12 @@
   <r>
     <n v="3409"/>
     <s v="Paulo Quintana"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-08-22T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5309,12 +6237,12 @@
   <r>
     <n v="3410"/>
     <s v="Raquel Domingos"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-08-23T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5324,12 +6252,12 @@
   <r>
     <n v="3411"/>
     <s v="Samuel Viana"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-08-24T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5339,12 +6267,12 @@
   <r>
     <n v="3412"/>
     <s v="Tatiane Rocha"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-08-25T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5354,12 +6282,12 @@
   <r>
     <n v="3413"/>
     <s v="Ulysses Farias"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-08-26T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5369,12 +6297,12 @@
   <r>
     <n v="3414"/>
     <s v="Vanessa Moreira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-08-27T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5384,12 +6312,12 @@
   <r>
     <n v="3415"/>
     <s v="William Carvalho"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-08-28T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5399,12 +6327,12 @@
   <r>
     <n v="3416"/>
     <s v="Ximena Barros"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-08-29T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5414,12 +6342,12 @@
   <r>
     <n v="3417"/>
     <s v="Yara Machado"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-08-30T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5429,12 +6357,12 @@
   <r>
     <n v="3418"/>
     <s v="Zacarias Costa"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-08-31T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5444,12 +6372,12 @@
   <r>
     <n v="3419"/>
     <s v="André Lopes"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-09-01T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5459,12 +6387,12 @@
   <r>
     <n v="3420"/>
     <s v="Beatriz Souza"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-09-02T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5474,12 +6402,12 @@
   <r>
     <n v="3421"/>
     <s v="Caio Pereira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-09-03T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5489,12 +6417,12 @@
   <r>
     <n v="3422"/>
     <s v="Daniela Araújo"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-09-04T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5504,12 +6432,12 @@
   <r>
     <n v="3423"/>
     <s v="Eduardo Santos"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-09-05T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5519,12 +6447,12 @@
   <r>
     <n v="3424"/>
     <s v="Fernanda Lima"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-09-06T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5534,12 +6462,12 @@
   <r>
     <n v="3425"/>
     <s v="Gabriel Teixeira"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-09-07T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5549,12 +6477,12 @@
   <r>
     <n v="3426"/>
     <s v="Helena Ribeiro"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-09-08T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5564,12 +6492,12 @@
   <r>
     <n v="3427"/>
     <s v="Igor Mendes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-09-09T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5579,12 +6507,12 @@
   <r>
     <n v="3428"/>
     <s v="Joana Silveira"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-09-10T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5594,12 +6522,12 @@
   <r>
     <n v="3429"/>
     <s v="Lucas Martins"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-09-11T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5609,12 +6537,12 @@
   <r>
     <n v="3430"/>
     <s v="Marcela Gouveia"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-09-12T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5624,12 +6552,12 @@
   <r>
     <n v="3431"/>
     <s v="Nicolas Borges"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-09-13T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5639,12 +6567,12 @@
   <r>
     <n v="3432"/>
     <s v="Olivia Freitas"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-09-14T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5654,12 +6582,12 @@
   <r>
     <n v="3433"/>
     <s v="Paulo Nogueira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-09-15T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5669,12 +6597,12 @@
   <r>
     <n v="3434"/>
     <s v="Raquel Andrade"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-09-16T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5684,12 +6612,12 @@
   <r>
     <n v="3435"/>
     <s v="Sônia Carvalho"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-09-17T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5699,12 +6627,12 @@
   <r>
     <n v="3436"/>
     <s v="Tiago Rodrigues"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-09-18T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5714,12 +6642,12 @@
   <r>
     <n v="3437"/>
     <s v="Ursula Monteiro"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-09-19T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5729,12 +6657,12 @@
   <r>
     <n v="3438"/>
     <s v="Vanessa Pereira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-09-20T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5744,12 +6672,12 @@
   <r>
     <n v="3439"/>
     <s v="Walter Silva"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-09-21T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5759,12 +6687,12 @@
   <r>
     <n v="3440"/>
     <s v="Xavier Almeida"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-09-22T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5774,12 +6702,12 @@
   <r>
     <n v="3441"/>
     <s v="Yasmine Correia"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-09-23T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5789,12 +6717,12 @@
   <r>
     <n v="3442"/>
     <s v="Zacarias Almeida"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-09-24T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5804,12 +6732,12 @@
   <r>
     <n v="3443"/>
     <s v="Amanda Costa"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-09-25T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5819,12 +6747,12 @@
   <r>
     <n v="3444"/>
     <s v="Bruno Ferreira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-09-26T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5834,12 +6762,12 @@
   <r>
     <n v="3445"/>
     <s v="Carla Dias"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-09-27T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5849,12 +6777,12 @@
   <r>
     <n v="3446"/>
     <s v="Diogo Martins"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-09-28T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5864,12 +6792,12 @@
   <r>
     <n v="3447"/>
     <s v="Elisa Campos"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-09-29T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5879,12 +6807,12 @@
   <r>
     <n v="3448"/>
     <s v="Fabiana Lima"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-09-30T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5894,12 +6822,12 @@
   <r>
     <n v="3449"/>
     <s v="Gabriel Santos"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-10-01T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5909,12 +6837,12 @@
   <r>
     <n v="3450"/>
     <s v="Helena Ferreira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-10-02T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5924,12 +6852,12 @@
   <r>
     <n v="3451"/>
     <s v="Ígor Nunes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-10-03T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5939,12 +6867,12 @@
   <r>
     <n v="3452"/>
     <s v="Joana Silveira"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-10-04T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5954,12 +6882,12 @@
   <r>
     <n v="3453"/>
     <s v="Kléber Oliveira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-10-05T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5969,12 +6897,12 @@
   <r>
     <n v="3454"/>
     <s v="Luciana Morais"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-10-06T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -5984,12 +6912,12 @@
   <r>
     <n v="3455"/>
     <s v="Marcos Vinícius"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-10-07T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -5999,12 +6927,12 @@
   <r>
     <n v="3456"/>
     <s v="Natália Barros"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-10-08T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6014,12 +6942,12 @@
   <r>
     <n v="3457"/>
     <s v="Oscar Sampaio"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-10-09T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6029,12 +6957,12 @@
   <r>
     <n v="3458"/>
     <s v="Patrícia Leite"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-10-10T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6044,12 +6972,12 @@
   <r>
     <n v="3459"/>
     <s v="Quênia Rocha"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-10-11T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6059,12 +6987,12 @@
   <r>
     <n v="3460"/>
     <s v="Rafael Torres"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-10-12T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6074,12 +7002,12 @@
   <r>
     <n v="3461"/>
     <s v="Sandra Gouveia"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-10-13T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6089,12 +7017,12 @@
   <r>
     <n v="3462"/>
     <s v="Tiago Lacerda"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-10-14T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6104,12 +7032,12 @@
   <r>
     <n v="3463"/>
     <s v="Ursula Fonseca"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-10-15T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6119,12 +7047,12 @@
   <r>
     <n v="3464"/>
     <s v="Vanessa Andrade"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-10-16T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6134,12 +7062,12 @@
   <r>
     <n v="3465"/>
     <s v="William Castro"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-10-17T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6149,12 +7077,12 @@
   <r>
     <n v="3466"/>
     <s v="Xavier Monteiro"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-10-18T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6164,12 +7092,12 @@
   <r>
     <n v="3467"/>
     <s v="Yasmin Figueira"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-10-19T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6179,12 +7107,12 @@
   <r>
     <n v="3468"/>
     <s v="Zacarias Mendonça"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-10-20T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6194,12 +7122,12 @@
   <r>
     <n v="3469"/>
     <s v="Amanda Menezes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-10-21T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6209,12 +7137,12 @@
   <r>
     <n v="3470"/>
     <s v="Bruno Santos"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-10-22T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6224,12 +7152,12 @@
   <r>
     <n v="3471"/>
     <s v="Carla Ferreira"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-10-23T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6239,12 +7167,12 @@
   <r>
     <n v="3472"/>
     <s v="Diogo Alves"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-10-24T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6254,12 +7182,12 @@
   <r>
     <n v="3473"/>
     <s v="Elisa Neves"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-10-25T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6269,12 +7197,12 @@
   <r>
     <n v="3474"/>
     <s v="Fabiano Pires"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-10-26T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6284,12 +7212,12 @@
   <r>
     <n v="3475"/>
     <s v="Giovana Ribeiro"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-10-27T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6299,12 +7227,12 @@
   <r>
     <n v="3476"/>
     <s v="Hélio Costa"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-10-28T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6314,12 +7242,12 @@
   <r>
     <n v="3477"/>
     <s v="Íris Loureiro"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-10-29T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6329,12 +7257,12 @@
   <r>
     <n v="3478"/>
     <s v="João Pereira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-10-30T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6344,12 +7272,12 @@
   <r>
     <n v="3479"/>
     <s v="Klara Silva"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-10-31T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6359,12 +7287,12 @@
   <r>
     <n v="3480"/>
     <s v="Luciana Barros"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-11-01T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6374,12 +7302,12 @@
   <r>
     <n v="3481"/>
     <s v="Marcos Gomes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-11-02T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6389,12 +7317,12 @@
   <r>
     <n v="3482"/>
     <s v="Natália Soares"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-11-03T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6404,12 +7332,12 @@
   <r>
     <n v="3483"/>
     <s v="Oscar Machado"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-11-04T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6419,12 +7347,12 @@
   <r>
     <n v="3484"/>
     <s v="Patrícia Lima"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-11-05T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6434,12 +7362,12 @@
   <r>
     <n v="3485"/>
     <s v="Quirino Neto"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-11-06T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6449,12 +7377,12 @@
   <r>
     <n v="3486"/>
     <s v="Rafaela Souza"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-11-07T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6464,12 +7392,12 @@
   <r>
     <n v="3487"/>
     <s v="Sandro Almeida"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-11-08T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6479,12 +7407,12 @@
   <r>
     <n v="3488"/>
     <s v="Tânia Ribeiro"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-11-09T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6494,12 +7422,12 @@
   <r>
     <n v="3489"/>
     <s v="Ugo Dias"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-11-10T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6509,12 +7437,12 @@
   <r>
     <n v="3490"/>
     <s v="Valéria Lima"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-11-11T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6524,12 +7452,12 @@
   <r>
     <n v="3491"/>
     <s v="William Fernandes"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-11-12T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6539,12 +7467,12 @@
   <r>
     <n v="3492"/>
     <s v="Xuxa Mendes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-11-13T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6554,12 +7482,12 @@
   <r>
     <n v="3493"/>
     <s v="Ygor Farias"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-11-14T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6569,12 +7497,12 @@
   <r>
     <n v="3494"/>
     <s v="Zilda Barros"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-11-15T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6584,12 +7512,12 @@
   <r>
     <n v="3495"/>
     <s v="Amanda Santos"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-11-16T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6599,12 +7527,12 @@
   <r>
     <n v="3496"/>
     <s v="Bruno Costa"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-11-17T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6614,12 +7542,12 @@
   <r>
     <n v="3497"/>
     <s v="Carla Rodrigues"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-11-18T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6629,12 +7557,12 @@
   <r>
     <n v="3498"/>
     <s v="Diogo Pereira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-11-19T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6644,12 +7572,12 @@
   <r>
     <n v="3499"/>
     <s v="Elisa Correia"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-11-20T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6659,12 +7587,12 @@
   <r>
     <n v="3500"/>
     <s v="Fábio Lourenço"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-11-21T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6674,12 +7602,12 @@
   <r>
     <n v="3501"/>
     <s v="Gabriela Neves"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-11-22T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6689,12 +7617,12 @@
   <r>
     <n v="3502"/>
     <s v="Henrique Gonçalves"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-11-23T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6704,12 +7632,12 @@
   <r>
     <n v="3503"/>
     <s v="Íris Santos"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-11-24T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6719,12 +7647,12 @@
   <r>
     <n v="3504"/>
     <s v="João Marcelo Alves"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-11-25T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6734,12 +7662,12 @@
   <r>
     <n v="3505"/>
     <s v="Klara Fonseca"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-11-26T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6749,12 +7677,12 @@
   <r>
     <n v="3506"/>
     <s v="Lucas Mendonça"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-11-27T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6764,12 +7692,12 @@
   <r>
     <n v="3507"/>
     <s v="Marcela Torres"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-11-28T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6779,12 +7707,12 @@
   <r>
     <n v="3508"/>
     <s v="Natália Castro"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-11-29T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6794,12 +7722,12 @@
   <r>
     <n v="3509"/>
     <s v="Oscar Martins"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-11-30T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6809,12 +7737,12 @@
   <r>
     <n v="3510"/>
     <s v="Patrícia Oliveira"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-12-01T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6824,12 +7752,12 @@
   <r>
     <n v="3511"/>
     <s v="Quentin Nogueira"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-12-02T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6839,12 +7767,12 @@
   <r>
     <n v="3512"/>
     <s v="Raquel Silva"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-12-03T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6854,12 +7782,12 @@
   <r>
     <n v="3513"/>
     <s v="Sandro Gomes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-12-04T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6869,12 +7797,12 @@
   <r>
     <n v="3514"/>
     <s v="Tânia Machado"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-12-05T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="3"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6884,12 +7812,12 @@
   <r>
     <n v="3515"/>
     <s v="Ursula Silva"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-12-06T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6899,12 +7827,12 @@
   <r>
     <n v="3516"/>
     <s v="Vanessa Moraes"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-12-07T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6914,12 +7842,12 @@
   <r>
     <n v="3517"/>
     <s v="William Carvalho"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-12-08T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6929,12 +7857,12 @@
   <r>
     <n v="3518"/>
     <s v="Xavier Reis"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-12-09T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6944,12 +7872,12 @@
   <r>
     <n v="3519"/>
     <s v="Yasmin Rocha"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-12-10T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -6959,12 +7887,12 @@
   <r>
     <n v="3520"/>
     <s v="Zacarias Duarte"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-12-11T00:00:00"/>
     <x v="1"/>
     <n v="15"/>
     <x v="2"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6974,12 +7902,12 @@
   <r>
     <n v="3521"/>
     <s v="Amanda Freitas"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-12-12T00:00:00"/>
     <x v="2"/>
     <n v="10"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -6989,12 +7917,12 @@
   <r>
     <n v="3522"/>
     <s v="Bruno Almeida"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-12-13T00:00:00"/>
     <x v="1"/>
     <n v="5"/>
     <x v="3"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -7004,12 +7932,12 @@
   <r>
     <n v="3523"/>
     <s v="Carla Siqueira"/>
-    <s v="Ultimate"/>
+    <x v="1"/>
     <d v="2024-12-14T00:00:00"/>
     <x v="2"/>
     <n v="15"/>
     <x v="1"/>
-    <s v="Yes"/>
+    <x v="1"/>
     <n v="30"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7019,12 +7947,12 @@
   <r>
     <n v="3524"/>
     <s v="Diogo Ramos"/>
-    <s v="Standard"/>
+    <x v="3"/>
     <d v="2024-12-15T00:00:00"/>
     <x v="1"/>
     <n v="10"/>
     <x v="2"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="Yes"/>
     <n v="20"/>
@@ -7034,12 +7962,12 @@
   <r>
     <n v="3525"/>
     <s v="Elisa Magalhães"/>
-    <s v="Core"/>
+    <x v="2"/>
     <d v="2024-12-16T00:00:00"/>
     <x v="2"/>
     <n v="5"/>
     <x v="1"/>
-    <s v="No"/>
+    <x v="2"/>
     <s v="-"/>
     <s v="No"/>
     <s v="R$ -   "/>
@@ -7050,7 +7978,217 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B85E553A-0972-4568-BCCA-A080ACE4AD97}" name="Tabela dinâmica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67384E98-A1A7-4FD5-8FD2-1441E78284A0}" name="Tabela dinâmica3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B28:C32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{703C56B4-6CA5-48A1-84A6-72931DF3B253}" name="Tabela dinâmica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B16:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de EA Play Season Pass" fld="7" subtotal="count" baseField="0" baseItem="0" numFmtId="170"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="52">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B85E553A-0972-4568-BCCA-A080ACE4AD97}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B6:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -7103,15 +8241,24 @@
     <pageField fld="6" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="169"/>
+    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7134,9 +8281,11 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Subscription_Type" xr10:uid="{82726EA2-917B-4CC3-844C-7E51F85CA5DA}" sourceName="Subscription Type">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Subscription_Type" xr10:uid="{770C7477-0F75-4220-B753-04AE9E6A4F76}" sourceName="Subscription Type">
   <pivotTables>
     <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="3" name="Tabela dinâmica2"/>
+    <pivotTable tabId="3" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="413132914">
@@ -7153,7 +8302,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Subscription Type" xr10:uid="{14DFB7CC-FD35-4E74-832B-1EA0C346AABA}" cache="SegmentaçãodeDados_Subscription_Type" caption="Subscription Type" style="SlicerStyleOther2" rowHeight="241300"/>
+  <slicer name="Subscription Type" xr10:uid="{54967663-5768-4612-91FA-B2609F41003A}" cache="SegmentaçãodeDados_Subscription_Type" caption="Subscription Type" style="SlicerStyleOther2" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -7423,13 +8572,13 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
@@ -7450,13 +8599,13 @@
       <c r="B7" s="5"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7488,62 +8637,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7">
@@ -19642,11 +20791,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -19654,6 +20798,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -19661,20 +20810,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553C7D2E-5A8F-4269-B82F-98A23C193D6B}">
-  <dimension ref="B4:C9"/>
+  <dimension ref="A4:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="19.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
@@ -19682,7 +20832,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C6" t="s">
@@ -19690,50 +20840,1242 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13">
         <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13">
         <v>1537</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>1754</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="20">
+        <v>71</v>
+      </c>
+      <c r="F20" s="13">
+        <f>GETPIVOTDATA("EA Play Season Pass",$B$16)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="20">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="20">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="20">
+        <v>940</v>
+      </c>
+      <c r="F32" s="13">
+        <f>GETPIVOTDATA("Minecraft Season Pass Price",$B$28)</f>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:M357"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" style="15" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1">
+      <c r="C2" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickTop="1"/>
+    <row r="4" spans="1:13" s="17" customFormat="1">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" s="17" customFormat="1">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" s="17" customFormat="1">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" s="17" customFormat="1">
+      <c r="A7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" s="17" customFormat="1">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" s="17" customFormat="1">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" s="17" customFormat="1">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" s="17" customFormat="1">
+      <c r="A11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" s="17" customFormat="1">
+      <c r="A12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" s="17" customFormat="1">
+      <c r="A13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" s="17" customFormat="1">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" s="17" customFormat="1">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" s="17" customFormat="1">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:1" s="17" customFormat="1">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:1" s="17" customFormat="1">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:1" s="17" customFormat="1">
+      <c r="A19" s="15"/>
+    </row>
+    <row r="20" spans="1:1" s="17" customFormat="1">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="21" spans="1:1" s="17" customFormat="1">
+      <c r="A21" s="15"/>
+    </row>
+    <row r="22" spans="1:1" s="17" customFormat="1">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:1" s="17" customFormat="1">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:1" s="17" customFormat="1">
+      <c r="A24" s="15"/>
+    </row>
+    <row r="25" spans="1:1" s="17" customFormat="1">
+      <c r="A25" s="15"/>
+    </row>
+    <row r="26" spans="1:1" s="17" customFormat="1">
+      <c r="A26" s="15"/>
+    </row>
+    <row r="27" spans="1:1" s="17" customFormat="1">
+      <c r="A27" s="15"/>
+    </row>
+    <row r="28" spans="1:1" s="17" customFormat="1">
+      <c r="A28" s="15"/>
+    </row>
+    <row r="29" spans="1:1" s="17" customFormat="1">
+      <c r="A29" s="15"/>
+    </row>
+    <row r="30" spans="1:1" s="17" customFormat="1">
+      <c r="A30" s="15"/>
+    </row>
+    <row r="31" spans="1:1" s="17" customFormat="1">
+      <c r="A31" s="15"/>
+    </row>
+    <row r="32" spans="1:1" s="17" customFormat="1">
+      <c r="A32" s="15"/>
+    </row>
+    <row r="33" spans="1:1" s="17" customFormat="1">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="34" spans="1:1" s="17" customFormat="1">
+      <c r="A34" s="15"/>
+    </row>
+    <row r="35" spans="1:1" s="17" customFormat="1">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:1" s="17" customFormat="1">
+      <c r="A36" s="15"/>
+    </row>
+    <row r="37" spans="1:1" s="17" customFormat="1">
+      <c r="A37" s="15"/>
+    </row>
+    <row r="38" spans="1:1" s="17" customFormat="1">
+      <c r="A38" s="15"/>
+    </row>
+    <row r="39" spans="1:1" s="17" customFormat="1">
+      <c r="A39" s="15"/>
+    </row>
+    <row r="40" spans="1:1" s="17" customFormat="1">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:1" s="17" customFormat="1">
+      <c r="A41" s="15"/>
+    </row>
+    <row r="42" spans="1:1" s="17" customFormat="1">
+      <c r="A42" s="15"/>
+    </row>
+    <row r="43" spans="1:1" s="17" customFormat="1">
+      <c r="A43" s="15"/>
+    </row>
+    <row r="44" spans="1:1" s="17" customFormat="1">
+      <c r="A44" s="15"/>
+    </row>
+    <row r="45" spans="1:1" s="17" customFormat="1">
+      <c r="A45" s="15"/>
+    </row>
+    <row r="46" spans="1:1" s="17" customFormat="1">
+      <c r="A46" s="15"/>
+    </row>
+    <row r="47" spans="1:1" s="17" customFormat="1">
+      <c r="A47" s="15"/>
+    </row>
+    <row r="48" spans="1:1" s="17" customFormat="1">
+      <c r="A48" s="15"/>
+    </row>
+    <row r="49" spans="1:1" s="17" customFormat="1">
+      <c r="A49" s="15"/>
+    </row>
+    <row r="50" spans="1:1" s="17" customFormat="1">
+      <c r="A50" s="15"/>
+    </row>
+    <row r="51" spans="1:1" s="17" customFormat="1">
+      <c r="A51" s="15"/>
+    </row>
+    <row r="52" spans="1:1" s="17" customFormat="1">
+      <c r="A52" s="15"/>
+    </row>
+    <row r="53" spans="1:1" s="17" customFormat="1">
+      <c r="A53" s="15"/>
+    </row>
+    <row r="54" spans="1:1" s="17" customFormat="1">
+      <c r="A54" s="15"/>
+    </row>
+    <row r="55" spans="1:1" s="17" customFormat="1">
+      <c r="A55" s="15"/>
+    </row>
+    <row r="56" spans="1:1" s="17" customFormat="1">
+      <c r="A56" s="15"/>
+    </row>
+    <row r="57" spans="1:1" s="17" customFormat="1">
+      <c r="A57" s="15"/>
+    </row>
+    <row r="58" spans="1:1" s="17" customFormat="1">
+      <c r="A58" s="15"/>
+    </row>
+    <row r="59" spans="1:1" s="17" customFormat="1">
+      <c r="A59" s="15"/>
+    </row>
+    <row r="60" spans="1:1" s="17" customFormat="1">
+      <c r="A60" s="15"/>
+    </row>
+    <row r="61" spans="1:1" s="17" customFormat="1">
+      <c r="A61" s="15"/>
+    </row>
+    <row r="62" spans="1:1" s="17" customFormat="1">
+      <c r="A62" s="15"/>
+    </row>
+    <row r="63" spans="1:1" s="17" customFormat="1">
+      <c r="A63" s="15"/>
+    </row>
+    <row r="64" spans="1:1" s="17" customFormat="1">
+      <c r="A64" s="15"/>
+    </row>
+    <row r="65" spans="1:1" s="17" customFormat="1">
+      <c r="A65" s="15"/>
+    </row>
+    <row r="66" spans="1:1" s="17" customFormat="1">
+      <c r="A66" s="15"/>
+    </row>
+    <row r="67" spans="1:1" s="17" customFormat="1">
+      <c r="A67" s="15"/>
+    </row>
+    <row r="68" spans="1:1" s="17" customFormat="1">
+      <c r="A68" s="15"/>
+    </row>
+    <row r="69" spans="1:1" s="17" customFormat="1">
+      <c r="A69" s="15"/>
+    </row>
+    <row r="70" spans="1:1" s="17" customFormat="1">
+      <c r="A70" s="15"/>
+    </row>
+    <row r="71" spans="1:1" s="17" customFormat="1">
+      <c r="A71" s="15"/>
+    </row>
+    <row r="72" spans="1:1" s="17" customFormat="1">
+      <c r="A72" s="15"/>
+    </row>
+    <row r="73" spans="1:1" s="17" customFormat="1">
+      <c r="A73" s="15"/>
+    </row>
+    <row r="74" spans="1:1" s="17" customFormat="1">
+      <c r="A74" s="15"/>
+    </row>
+    <row r="75" spans="1:1" s="17" customFormat="1">
+      <c r="A75" s="15"/>
+    </row>
+    <row r="76" spans="1:1" s="17" customFormat="1">
+      <c r="A76" s="15"/>
+    </row>
+    <row r="77" spans="1:1" s="17" customFormat="1">
+      <c r="A77" s="15"/>
+    </row>
+    <row r="78" spans="1:1" s="17" customFormat="1">
+      <c r="A78" s="15"/>
+    </row>
+    <row r="79" spans="1:1" s="17" customFormat="1">
+      <c r="A79" s="15"/>
+    </row>
+    <row r="80" spans="1:1" s="17" customFormat="1">
+      <c r="A80" s="15"/>
+    </row>
+    <row r="81" spans="1:1" s="17" customFormat="1">
+      <c r="A81" s="15"/>
+    </row>
+    <row r="82" spans="1:1" s="17" customFormat="1">
+      <c r="A82" s="15"/>
+    </row>
+    <row r="83" spans="1:1" s="17" customFormat="1">
+      <c r="A83" s="15"/>
+    </row>
+    <row r="84" spans="1:1" s="17" customFormat="1">
+      <c r="A84" s="15"/>
+    </row>
+    <row r="85" spans="1:1" s="17" customFormat="1">
+      <c r="A85" s="15"/>
+    </row>
+    <row r="86" spans="1:1" s="17" customFormat="1">
+      <c r="A86" s="15"/>
+    </row>
+    <row r="87" spans="1:1" s="17" customFormat="1">
+      <c r="A87" s="15"/>
+    </row>
+    <row r="88" spans="1:1" s="17" customFormat="1">
+      <c r="A88" s="15"/>
+    </row>
+    <row r="89" spans="1:1" s="17" customFormat="1">
+      <c r="A89" s="15"/>
+    </row>
+    <row r="90" spans="1:1" s="17" customFormat="1">
+      <c r="A90" s="15"/>
+    </row>
+    <row r="91" spans="1:1" s="17" customFormat="1">
+      <c r="A91" s="15"/>
+    </row>
+    <row r="92" spans="1:1" s="17" customFormat="1">
+      <c r="A92" s="15"/>
+    </row>
+    <row r="93" spans="1:1" s="17" customFormat="1">
+      <c r="A93" s="15"/>
+    </row>
+    <row r="94" spans="1:1" s="17" customFormat="1">
+      <c r="A94" s="15"/>
+    </row>
+    <row r="95" spans="1:1" s="17" customFormat="1">
+      <c r="A95" s="15"/>
+    </row>
+    <row r="96" spans="1:1" s="17" customFormat="1">
+      <c r="A96" s="15"/>
+    </row>
+    <row r="97" spans="1:1" s="17" customFormat="1">
+      <c r="A97" s="15"/>
+    </row>
+    <row r="98" spans="1:1" s="17" customFormat="1">
+      <c r="A98" s="15"/>
+    </row>
+    <row r="99" spans="1:1" s="17" customFormat="1">
+      <c r="A99" s="15"/>
+    </row>
+    <row r="100" spans="1:1" s="17" customFormat="1">
+      <c r="A100" s="15"/>
+    </row>
+    <row r="101" spans="1:1" s="17" customFormat="1">
+      <c r="A101" s="15"/>
+    </row>
+    <row r="102" spans="1:1" s="17" customFormat="1">
+      <c r="A102" s="15"/>
+    </row>
+    <row r="103" spans="1:1" s="17" customFormat="1">
+      <c r="A103" s="15"/>
+    </row>
+    <row r="104" spans="1:1" s="17" customFormat="1">
+      <c r="A104" s="15"/>
+    </row>
+    <row r="105" spans="1:1" s="17" customFormat="1">
+      <c r="A105" s="15"/>
+    </row>
+    <row r="106" spans="1:1" s="17" customFormat="1">
+      <c r="A106" s="15"/>
+    </row>
+    <row r="107" spans="1:1" s="17" customFormat="1">
+      <c r="A107" s="15"/>
+    </row>
+    <row r="108" spans="1:1" s="17" customFormat="1">
+      <c r="A108" s="15"/>
+    </row>
+    <row r="109" spans="1:1" s="17" customFormat="1">
+      <c r="A109" s="15"/>
+    </row>
+    <row r="110" spans="1:1" s="17" customFormat="1">
+      <c r="A110" s="15"/>
+    </row>
+    <row r="111" spans="1:1" s="17" customFormat="1">
+      <c r="A111" s="15"/>
+    </row>
+    <row r="112" spans="1:1" s="17" customFormat="1">
+      <c r="A112" s="15"/>
+    </row>
+    <row r="113" spans="1:1" s="17" customFormat="1">
+      <c r="A113" s="15"/>
+    </row>
+    <row r="114" spans="1:1" s="17" customFormat="1">
+      <c r="A114" s="15"/>
+    </row>
+    <row r="115" spans="1:1" s="17" customFormat="1">
+      <c r="A115" s="15"/>
+    </row>
+    <row r="116" spans="1:1" s="17" customFormat="1">
+      <c r="A116" s="15"/>
+    </row>
+    <row r="117" spans="1:1" s="17" customFormat="1">
+      <c r="A117" s="15"/>
+    </row>
+    <row r="118" spans="1:1" s="17" customFormat="1">
+      <c r="A118" s="15"/>
+    </row>
+    <row r="119" spans="1:1" s="17" customFormat="1">
+      <c r="A119" s="15"/>
+    </row>
+    <row r="120" spans="1:1" s="17" customFormat="1">
+      <c r="A120" s="15"/>
+    </row>
+    <row r="121" spans="1:1" s="17" customFormat="1">
+      <c r="A121" s="15"/>
+    </row>
+    <row r="122" spans="1:1" s="17" customFormat="1">
+      <c r="A122" s="15"/>
+    </row>
+    <row r="123" spans="1:1" s="17" customFormat="1">
+      <c r="A123" s="15"/>
+    </row>
+    <row r="124" spans="1:1" s="17" customFormat="1">
+      <c r="A124" s="15"/>
+    </row>
+    <row r="125" spans="1:1" s="17" customFormat="1">
+      <c r="A125" s="15"/>
+    </row>
+    <row r="126" spans="1:1" s="17" customFormat="1">
+      <c r="A126" s="15"/>
+    </row>
+    <row r="127" spans="1:1" s="17" customFormat="1">
+      <c r="A127" s="15"/>
+    </row>
+    <row r="128" spans="1:1" s="17" customFormat="1">
+      <c r="A128" s="15"/>
+    </row>
+    <row r="129" spans="1:1" s="17" customFormat="1">
+      <c r="A129" s="15"/>
+    </row>
+    <row r="130" spans="1:1" s="17" customFormat="1">
+      <c r="A130" s="15"/>
+    </row>
+    <row r="131" spans="1:1" s="17" customFormat="1">
+      <c r="A131" s="15"/>
+    </row>
+    <row r="132" spans="1:1" s="17" customFormat="1">
+      <c r="A132" s="15"/>
+    </row>
+    <row r="133" spans="1:1" s="17" customFormat="1">
+      <c r="A133" s="15"/>
+    </row>
+    <row r="134" spans="1:1" s="17" customFormat="1">
+      <c r="A134" s="15"/>
+    </row>
+    <row r="135" spans="1:1" s="17" customFormat="1">
+      <c r="A135" s="15"/>
+    </row>
+    <row r="136" spans="1:1" s="17" customFormat="1">
+      <c r="A136" s="15"/>
+    </row>
+    <row r="137" spans="1:1" s="17" customFormat="1">
+      <c r="A137" s="15"/>
+    </row>
+    <row r="138" spans="1:1" s="17" customFormat="1">
+      <c r="A138" s="15"/>
+    </row>
+    <row r="139" spans="1:1" s="17" customFormat="1">
+      <c r="A139" s="15"/>
+    </row>
+    <row r="140" spans="1:1" s="17" customFormat="1">
+      <c r="A140" s="15"/>
+    </row>
+    <row r="141" spans="1:1" s="17" customFormat="1">
+      <c r="A141" s="15"/>
+    </row>
+    <row r="142" spans="1:1" s="17" customFormat="1">
+      <c r="A142" s="15"/>
+    </row>
+    <row r="143" spans="1:1" s="17" customFormat="1">
+      <c r="A143" s="15"/>
+    </row>
+    <row r="144" spans="1:1" s="17" customFormat="1">
+      <c r="A144" s="15"/>
+    </row>
+    <row r="145" spans="1:1" s="17" customFormat="1">
+      <c r="A145" s="15"/>
+    </row>
+    <row r="146" spans="1:1" s="17" customFormat="1">
+      <c r="A146" s="15"/>
+    </row>
+    <row r="147" spans="1:1" s="17" customFormat="1">
+      <c r="A147" s="15"/>
+    </row>
+    <row r="148" spans="1:1" s="17" customFormat="1">
+      <c r="A148" s="15"/>
+    </row>
+    <row r="149" spans="1:1" s="17" customFormat="1">
+      <c r="A149" s="15"/>
+    </row>
+    <row r="150" spans="1:1" s="17" customFormat="1">
+      <c r="A150" s="15"/>
+    </row>
+    <row r="151" spans="1:1" s="17" customFormat="1">
+      <c r="A151" s="15"/>
+    </row>
+    <row r="152" spans="1:1" s="17" customFormat="1">
+      <c r="A152" s="15"/>
+    </row>
+    <row r="153" spans="1:1" s="17" customFormat="1">
+      <c r="A153" s="15"/>
+    </row>
+    <row r="154" spans="1:1" s="17" customFormat="1">
+      <c r="A154" s="15"/>
+    </row>
+    <row r="155" spans="1:1" s="17" customFormat="1">
+      <c r="A155" s="15"/>
+    </row>
+    <row r="156" spans="1:1" s="17" customFormat="1">
+      <c r="A156" s="15"/>
+    </row>
+    <row r="157" spans="1:1" s="17" customFormat="1">
+      <c r="A157" s="15"/>
+    </row>
+    <row r="158" spans="1:1" s="17" customFormat="1">
+      <c r="A158" s="15"/>
+    </row>
+    <row r="159" spans="1:1" s="17" customFormat="1">
+      <c r="A159" s="15"/>
+    </row>
+    <row r="160" spans="1:1" s="17" customFormat="1">
+      <c r="A160" s="15"/>
+    </row>
+    <row r="161" spans="1:1" s="17" customFormat="1">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="162" spans="1:1" s="17" customFormat="1">
+      <c r="A162" s="15"/>
+    </row>
+    <row r="163" spans="1:1" s="17" customFormat="1">
+      <c r="A163" s="15"/>
+    </row>
+    <row r="164" spans="1:1" s="17" customFormat="1">
+      <c r="A164" s="15"/>
+    </row>
+    <row r="165" spans="1:1" s="17" customFormat="1">
+      <c r="A165" s="15"/>
+    </row>
+    <row r="166" spans="1:1" s="17" customFormat="1">
+      <c r="A166" s="15"/>
+    </row>
+    <row r="167" spans="1:1" s="17" customFormat="1">
+      <c r="A167" s="15"/>
+    </row>
+    <row r="168" spans="1:1" s="17" customFormat="1">
+      <c r="A168" s="15"/>
+    </row>
+    <row r="169" spans="1:1" s="17" customFormat="1">
+      <c r="A169" s="15"/>
+    </row>
+    <row r="170" spans="1:1" s="17" customFormat="1">
+      <c r="A170" s="15"/>
+    </row>
+    <row r="171" spans="1:1" s="17" customFormat="1">
+      <c r="A171" s="15"/>
+    </row>
+    <row r="172" spans="1:1" s="17" customFormat="1">
+      <c r="A172" s="15"/>
+    </row>
+    <row r="173" spans="1:1" s="17" customFormat="1">
+      <c r="A173" s="15"/>
+    </row>
+    <row r="174" spans="1:1" s="17" customFormat="1">
+      <c r="A174" s="15"/>
+    </row>
+    <row r="175" spans="1:1" s="17" customFormat="1">
+      <c r="A175" s="15"/>
+    </row>
+    <row r="176" spans="1:1" s="17" customFormat="1">
+      <c r="A176" s="15"/>
+    </row>
+    <row r="177" spans="1:1" s="17" customFormat="1">
+      <c r="A177" s="15"/>
+    </row>
+    <row r="178" spans="1:1" s="17" customFormat="1">
+      <c r="A178" s="15"/>
+    </row>
+    <row r="179" spans="1:1" s="17" customFormat="1">
+      <c r="A179" s="15"/>
+    </row>
+    <row r="180" spans="1:1" s="17" customFormat="1">
+      <c r="A180" s="15"/>
+    </row>
+    <row r="181" spans="1:1" s="17" customFormat="1">
+      <c r="A181" s="15"/>
+    </row>
+    <row r="182" spans="1:1" s="17" customFormat="1">
+      <c r="A182" s="15"/>
+    </row>
+    <row r="183" spans="1:1" s="17" customFormat="1">
+      <c r="A183" s="15"/>
+    </row>
+    <row r="184" spans="1:1" s="17" customFormat="1">
+      <c r="A184" s="15"/>
+    </row>
+    <row r="185" spans="1:1" s="17" customFormat="1">
+      <c r="A185" s="15"/>
+    </row>
+    <row r="186" spans="1:1" s="17" customFormat="1">
+      <c r="A186" s="15"/>
+    </row>
+    <row r="187" spans="1:1" s="17" customFormat="1">
+      <c r="A187" s="15"/>
+    </row>
+    <row r="188" spans="1:1" s="17" customFormat="1">
+      <c r="A188" s="15"/>
+    </row>
+    <row r="189" spans="1:1" s="17" customFormat="1">
+      <c r="A189" s="15"/>
+    </row>
+    <row r="190" spans="1:1" s="17" customFormat="1">
+      <c r="A190" s="15"/>
+    </row>
+    <row r="191" spans="1:1" s="17" customFormat="1">
+      <c r="A191" s="15"/>
+    </row>
+    <row r="192" spans="1:1" s="17" customFormat="1">
+      <c r="A192" s="15"/>
+    </row>
+    <row r="193" spans="1:1" s="17" customFormat="1">
+      <c r="A193" s="15"/>
+    </row>
+    <row r="194" spans="1:1" s="17" customFormat="1">
+      <c r="A194" s="15"/>
+    </row>
+    <row r="195" spans="1:1" s="17" customFormat="1">
+      <c r="A195" s="15"/>
+    </row>
+    <row r="196" spans="1:1" s="17" customFormat="1">
+      <c r="A196" s="15"/>
+    </row>
+    <row r="197" spans="1:1" s="17" customFormat="1">
+      <c r="A197" s="15"/>
+    </row>
+    <row r="198" spans="1:1" s="17" customFormat="1">
+      <c r="A198" s="15"/>
+    </row>
+    <row r="199" spans="1:1" s="17" customFormat="1">
+      <c r="A199" s="15"/>
+    </row>
+    <row r="200" spans="1:1" s="17" customFormat="1">
+      <c r="A200" s="15"/>
+    </row>
+    <row r="201" spans="1:1" s="17" customFormat="1">
+      <c r="A201" s="15"/>
+    </row>
+    <row r="202" spans="1:1" s="17" customFormat="1">
+      <c r="A202" s="15"/>
+    </row>
+    <row r="203" spans="1:1" s="17" customFormat="1">
+      <c r="A203" s="15"/>
+    </row>
+    <row r="204" spans="1:1" s="17" customFormat="1">
+      <c r="A204" s="15"/>
+    </row>
+    <row r="205" spans="1:1" s="17" customFormat="1">
+      <c r="A205" s="15"/>
+    </row>
+    <row r="206" spans="1:1" s="17" customFormat="1">
+      <c r="A206" s="15"/>
+    </row>
+    <row r="207" spans="1:1" s="17" customFormat="1">
+      <c r="A207" s="15"/>
+    </row>
+    <row r="208" spans="1:1" s="17" customFormat="1">
+      <c r="A208" s="15"/>
+    </row>
+    <row r="209" spans="1:1" s="17" customFormat="1">
+      <c r="A209" s="15"/>
+    </row>
+    <row r="210" spans="1:1" s="17" customFormat="1">
+      <c r="A210" s="15"/>
+    </row>
+    <row r="211" spans="1:1" s="17" customFormat="1">
+      <c r="A211" s="15"/>
+    </row>
+    <row r="212" spans="1:1" s="17" customFormat="1">
+      <c r="A212" s="15"/>
+    </row>
+    <row r="213" spans="1:1" s="17" customFormat="1">
+      <c r="A213" s="15"/>
+    </row>
+    <row r="214" spans="1:1" s="17" customFormat="1">
+      <c r="A214" s="15"/>
+    </row>
+    <row r="215" spans="1:1" s="17" customFormat="1">
+      <c r="A215" s="15"/>
+    </row>
+    <row r="216" spans="1:1" s="17" customFormat="1">
+      <c r="A216" s="15"/>
+    </row>
+    <row r="217" spans="1:1" s="17" customFormat="1">
+      <c r="A217" s="15"/>
+    </row>
+    <row r="218" spans="1:1" s="17" customFormat="1">
+      <c r="A218" s="15"/>
+    </row>
+    <row r="219" spans="1:1" s="17" customFormat="1">
+      <c r="A219" s="15"/>
+    </row>
+    <row r="220" spans="1:1" s="17" customFormat="1">
+      <c r="A220" s="15"/>
+    </row>
+    <row r="221" spans="1:1" s="17" customFormat="1">
+      <c r="A221" s="15"/>
+    </row>
+    <row r="222" spans="1:1" s="17" customFormat="1">
+      <c r="A222" s="15"/>
+    </row>
+    <row r="223" spans="1:1" s="17" customFormat="1">
+      <c r="A223" s="15"/>
+    </row>
+    <row r="224" spans="1:1" s="17" customFormat="1">
+      <c r="A224" s="15"/>
+    </row>
+    <row r="225" spans="1:1" s="17" customFormat="1">
+      <c r="A225" s="15"/>
+    </row>
+    <row r="226" spans="1:1" s="17" customFormat="1">
+      <c r="A226" s="15"/>
+    </row>
+    <row r="227" spans="1:1" s="17" customFormat="1">
+      <c r="A227" s="15"/>
+    </row>
+    <row r="228" spans="1:1" s="17" customFormat="1">
+      <c r="A228" s="15"/>
+    </row>
+    <row r="229" spans="1:1" s="17" customFormat="1">
+      <c r="A229" s="15"/>
+    </row>
+    <row r="230" spans="1:1" s="17" customFormat="1">
+      <c r="A230" s="15"/>
+    </row>
+    <row r="231" spans="1:1" s="17" customFormat="1">
+      <c r="A231" s="15"/>
+    </row>
+    <row r="232" spans="1:1" s="17" customFormat="1">
+      <c r="A232" s="15"/>
+    </row>
+    <row r="233" spans="1:1" s="17" customFormat="1">
+      <c r="A233" s="15"/>
+    </row>
+    <row r="234" spans="1:1" s="17" customFormat="1">
+      <c r="A234" s="15"/>
+    </row>
+    <row r="235" spans="1:1" s="17" customFormat="1">
+      <c r="A235" s="15"/>
+    </row>
+    <row r="236" spans="1:1" s="17" customFormat="1">
+      <c r="A236" s="15"/>
+    </row>
+    <row r="237" spans="1:1" s="17" customFormat="1">
+      <c r="A237" s="15"/>
+    </row>
+    <row r="238" spans="1:1" s="17" customFormat="1">
+      <c r="A238" s="15"/>
+    </row>
+    <row r="239" spans="1:1" s="17" customFormat="1">
+      <c r="A239" s="15"/>
+    </row>
+    <row r="240" spans="1:1" s="17" customFormat="1">
+      <c r="A240" s="15"/>
+    </row>
+    <row r="241" spans="1:1" s="17" customFormat="1">
+      <c r="A241" s="15"/>
+    </row>
+    <row r="242" spans="1:1" s="17" customFormat="1">
+      <c r="A242" s="15"/>
+    </row>
+    <row r="243" spans="1:1" s="17" customFormat="1">
+      <c r="A243" s="15"/>
+    </row>
+    <row r="244" spans="1:1" s="17" customFormat="1">
+      <c r="A244" s="15"/>
+    </row>
+    <row r="245" spans="1:1" s="17" customFormat="1">
+      <c r="A245" s="15"/>
+    </row>
+    <row r="246" spans="1:1" s="17" customFormat="1">
+      <c r="A246" s="15"/>
+    </row>
+    <row r="247" spans="1:1" s="17" customFormat="1">
+      <c r="A247" s="15"/>
+    </row>
+    <row r="248" spans="1:1" s="17" customFormat="1">
+      <c r="A248" s="15"/>
+    </row>
+    <row r="249" spans="1:1" s="17" customFormat="1">
+      <c r="A249" s="15"/>
+    </row>
+    <row r="250" spans="1:1" s="17" customFormat="1">
+      <c r="A250" s="15"/>
+    </row>
+    <row r="251" spans="1:1" s="17" customFormat="1">
+      <c r="A251" s="15"/>
+    </row>
+    <row r="252" spans="1:1" s="17" customFormat="1">
+      <c r="A252" s="15"/>
+    </row>
+    <row r="253" spans="1:1" s="17" customFormat="1">
+      <c r="A253" s="15"/>
+    </row>
+    <row r="254" spans="1:1" s="17" customFormat="1">
+      <c r="A254" s="15"/>
+    </row>
+    <row r="255" spans="1:1" s="17" customFormat="1">
+      <c r="A255" s="15"/>
+    </row>
+    <row r="256" spans="1:1" s="17" customFormat="1">
+      <c r="A256" s="15"/>
+    </row>
+    <row r="257" spans="1:1" s="17" customFormat="1">
+      <c r="A257" s="15"/>
+    </row>
+    <row r="258" spans="1:1" s="17" customFormat="1">
+      <c r="A258" s="15"/>
+    </row>
+    <row r="259" spans="1:1" s="17" customFormat="1">
+      <c r="A259" s="15"/>
+    </row>
+    <row r="260" spans="1:1" s="17" customFormat="1">
+      <c r="A260" s="15"/>
+    </row>
+    <row r="261" spans="1:1" s="17" customFormat="1">
+      <c r="A261" s="15"/>
+    </row>
+    <row r="262" spans="1:1" s="17" customFormat="1">
+      <c r="A262" s="15"/>
+    </row>
+    <row r="263" spans="1:1" s="17" customFormat="1">
+      <c r="A263" s="15"/>
+    </row>
+    <row r="264" spans="1:1" s="17" customFormat="1">
+      <c r="A264" s="15"/>
+    </row>
+    <row r="265" spans="1:1" s="17" customFormat="1">
+      <c r="A265" s="15"/>
+    </row>
+    <row r="266" spans="1:1" s="17" customFormat="1">
+      <c r="A266" s="15"/>
+    </row>
+    <row r="267" spans="1:1" s="17" customFormat="1">
+      <c r="A267" s="15"/>
+    </row>
+    <row r="268" spans="1:1" s="17" customFormat="1">
+      <c r="A268" s="15"/>
+    </row>
+    <row r="269" spans="1:1" s="17" customFormat="1">
+      <c r="A269" s="15"/>
+    </row>
+    <row r="270" spans="1:1" s="17" customFormat="1">
+      <c r="A270" s="15"/>
+    </row>
+    <row r="271" spans="1:1" s="17" customFormat="1">
+      <c r="A271" s="15"/>
+    </row>
+    <row r="272" spans="1:1" s="17" customFormat="1">
+      <c r="A272" s="15"/>
+    </row>
+    <row r="273" spans="1:1" s="17" customFormat="1">
+      <c r="A273" s="15"/>
+    </row>
+    <row r="274" spans="1:1" s="17" customFormat="1">
+      <c r="A274" s="15"/>
+    </row>
+    <row r="275" spans="1:1" s="17" customFormat="1">
+      <c r="A275" s="15"/>
+    </row>
+    <row r="276" spans="1:1" s="17" customFormat="1">
+      <c r="A276" s="15"/>
+    </row>
+    <row r="277" spans="1:1" s="17" customFormat="1">
+      <c r="A277" s="15"/>
+    </row>
+    <row r="278" spans="1:1" s="17" customFormat="1">
+      <c r="A278" s="15"/>
+    </row>
+    <row r="279" spans="1:1" s="17" customFormat="1">
+      <c r="A279" s="15"/>
+    </row>
+    <row r="280" spans="1:1" s="17" customFormat="1">
+      <c r="A280" s="15"/>
+    </row>
+    <row r="281" spans="1:1" s="17" customFormat="1">
+      <c r="A281" s="15"/>
+    </row>
+    <row r="282" spans="1:1" s="17" customFormat="1">
+      <c r="A282" s="15"/>
+    </row>
+    <row r="283" spans="1:1" s="17" customFormat="1">
+      <c r="A283" s="15"/>
+    </row>
+    <row r="284" spans="1:1" s="17" customFormat="1">
+      <c r="A284" s="15"/>
+    </row>
+    <row r="285" spans="1:1" s="17" customFormat="1">
+      <c r="A285" s="15"/>
+    </row>
+    <row r="286" spans="1:1" s="17" customFormat="1">
+      <c r="A286" s="15"/>
+    </row>
+    <row r="287" spans="1:1" s="17" customFormat="1">
+      <c r="A287" s="15"/>
+    </row>
+    <row r="288" spans="1:1" s="17" customFormat="1">
+      <c r="A288" s="15"/>
+    </row>
+    <row r="289" spans="1:1" s="17" customFormat="1">
+      <c r="A289" s="15"/>
+    </row>
+    <row r="290" spans="1:1" s="17" customFormat="1">
+      <c r="A290" s="15"/>
+    </row>
+    <row r="291" spans="1:1" s="17" customFormat="1">
+      <c r="A291" s="15"/>
+    </row>
+    <row r="292" spans="1:1" s="17" customFormat="1">
+      <c r="A292" s="15"/>
+    </row>
+    <row r="293" spans="1:1" s="17" customFormat="1">
+      <c r="A293" s="15"/>
+    </row>
+    <row r="294" spans="1:1" s="17" customFormat="1">
+      <c r="A294" s="15"/>
+    </row>
+    <row r="295" spans="1:1" s="17" customFormat="1">
+      <c r="A295" s="15"/>
+    </row>
+    <row r="296" spans="1:1" s="17" customFormat="1">
+      <c r="A296" s="15"/>
+    </row>
+    <row r="297" spans="1:1" s="17" customFormat="1">
+      <c r="A297" s="15"/>
+    </row>
+    <row r="298" spans="1:1" s="17" customFormat="1">
+      <c r="A298" s="15"/>
+    </row>
+    <row r="299" spans="1:1" s="17" customFormat="1">
+      <c r="A299" s="15"/>
+    </row>
+    <row r="300" spans="1:1" s="17" customFormat="1">
+      <c r="A300" s="15"/>
+    </row>
+    <row r="301" spans="1:1" s="17" customFormat="1">
+      <c r="A301" s="15"/>
+    </row>
+    <row r="302" spans="1:1" s="17" customFormat="1">
+      <c r="A302" s="15"/>
+    </row>
+    <row r="303" spans="1:1" s="17" customFormat="1">
+      <c r="A303" s="15"/>
+    </row>
+    <row r="304" spans="1:1" s="17" customFormat="1">
+      <c r="A304" s="15"/>
+    </row>
+    <row r="305" spans="1:1" s="17" customFormat="1">
+      <c r="A305" s="15"/>
+    </row>
+    <row r="306" spans="1:1" s="17" customFormat="1">
+      <c r="A306" s="15"/>
+    </row>
+    <row r="307" spans="1:1" s="17" customFormat="1">
+      <c r="A307" s="15"/>
+    </row>
+    <row r="308" spans="1:1" s="17" customFormat="1">
+      <c r="A308" s="15"/>
+    </row>
+    <row r="309" spans="1:1" s="17" customFormat="1">
+      <c r="A309" s="15"/>
+    </row>
+    <row r="310" spans="1:1" s="17" customFormat="1">
+      <c r="A310" s="15"/>
+    </row>
+    <row r="311" spans="1:1" s="17" customFormat="1">
+      <c r="A311" s="15"/>
+    </row>
+    <row r="312" spans="1:1" s="17" customFormat="1">
+      <c r="A312" s="15"/>
+    </row>
+    <row r="313" spans="1:1" s="17" customFormat="1">
+      <c r="A313" s="15"/>
+    </row>
+    <row r="314" spans="1:1" s="17" customFormat="1">
+      <c r="A314" s="15"/>
+    </row>
+    <row r="315" spans="1:1" s="17" customFormat="1">
+      <c r="A315" s="15"/>
+    </row>
+    <row r="316" spans="1:1" s="17" customFormat="1">
+      <c r="A316" s="15"/>
+    </row>
+    <row r="317" spans="1:1" s="17" customFormat="1">
+      <c r="A317" s="15"/>
+    </row>
+    <row r="318" spans="1:1" s="17" customFormat="1">
+      <c r="A318" s="15"/>
+    </row>
+    <row r="319" spans="1:1" s="17" customFormat="1">
+      <c r="A319" s="15"/>
+    </row>
+    <row r="320" spans="1:1" s="17" customFormat="1">
+      <c r="A320" s="15"/>
+    </row>
+    <row r="321" spans="1:1" s="17" customFormat="1">
+      <c r="A321" s="15"/>
+    </row>
+    <row r="322" spans="1:1" s="17" customFormat="1">
+      <c r="A322" s="15"/>
+    </row>
+    <row r="323" spans="1:1" s="17" customFormat="1">
+      <c r="A323" s="15"/>
+    </row>
+    <row r="324" spans="1:1" s="17" customFormat="1">
+      <c r="A324" s="15"/>
+    </row>
+    <row r="325" spans="1:1" s="17" customFormat="1">
+      <c r="A325" s="15"/>
+    </row>
+    <row r="326" spans="1:1" s="17" customFormat="1">
+      <c r="A326" s="15"/>
+    </row>
+    <row r="327" spans="1:1" s="17" customFormat="1">
+      <c r="A327" s="15"/>
+    </row>
+    <row r="328" spans="1:1" s="17" customFormat="1">
+      <c r="A328" s="15"/>
+    </row>
+    <row r="329" spans="1:1" s="17" customFormat="1">
+      <c r="A329" s="15"/>
+    </row>
+    <row r="330" spans="1:1" s="17" customFormat="1">
+      <c r="A330" s="15"/>
+    </row>
+    <row r="331" spans="1:1" s="17" customFormat="1">
+      <c r="A331" s="15"/>
+    </row>
+    <row r="332" spans="1:1" s="17" customFormat="1">
+      <c r="A332" s="15"/>
+    </row>
+    <row r="333" spans="1:1" s="17" customFormat="1">
+      <c r="A333" s="15"/>
+    </row>
+    <row r="334" spans="1:1" s="17" customFormat="1">
+      <c r="A334" s="15"/>
+    </row>
+    <row r="335" spans="1:1" s="17" customFormat="1">
+      <c r="A335" s="15"/>
+    </row>
+    <row r="336" spans="1:1" s="17" customFormat="1">
+      <c r="A336" s="15"/>
+    </row>
+    <row r="337" spans="1:1" s="17" customFormat="1">
+      <c r="A337" s="15"/>
+    </row>
+    <row r="338" spans="1:1" s="17" customFormat="1">
+      <c r="A338" s="15"/>
+    </row>
+    <row r="339" spans="1:1" s="17" customFormat="1">
+      <c r="A339" s="15"/>
+    </row>
+    <row r="340" spans="1:1" s="17" customFormat="1">
+      <c r="A340" s="15"/>
+    </row>
+    <row r="341" spans="1:1" s="17" customFormat="1">
+      <c r="A341" s="15"/>
+    </row>
+    <row r="342" spans="1:1" s="17" customFormat="1">
+      <c r="A342" s="15"/>
+    </row>
+    <row r="343" spans="1:1" s="17" customFormat="1">
+      <c r="A343" s="15"/>
+    </row>
+    <row r="344" spans="1:1" s="17" customFormat="1">
+      <c r="A344" s="15"/>
+    </row>
+    <row r="345" spans="1:1" s="17" customFormat="1">
+      <c r="A345" s="15"/>
+    </row>
+    <row r="346" spans="1:1" s="17" customFormat="1">
+      <c r="A346" s="15"/>
+    </row>
+    <row r="347" spans="1:1" s="17" customFormat="1">
+      <c r="A347" s="15"/>
+    </row>
+    <row r="348" spans="1:1" s="17" customFormat="1">
+      <c r="A348" s="15"/>
+    </row>
+    <row r="349" spans="1:1" s="17" customFormat="1">
+      <c r="A349" s="15"/>
+    </row>
+    <row r="350" spans="1:1" s="17" customFormat="1">
+      <c r="A350" s="15"/>
+    </row>
+    <row r="351" spans="1:1" s="17" customFormat="1">
+      <c r="A351" s="15"/>
+    </row>
+    <row r="352" spans="1:1" s="17" customFormat="1">
+      <c r="A352" s="15"/>
+    </row>
+    <row r="353" spans="1:1" s="17" customFormat="1">
+      <c r="A353" s="15"/>
+    </row>
+    <row r="354" spans="1:1" s="17" customFormat="1">
+      <c r="A354" s="15"/>
+    </row>
+    <row r="355" spans="1:1" s="17" customFormat="1">
+      <c r="A355" s="15"/>
+    </row>
+    <row r="356" spans="1:1" s="17" customFormat="1">
+      <c r="A356" s="15"/>
+    </row>
+    <row r="357" spans="1:1" s="17" customFormat="1">
+      <c r="A357" s="15"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>